--- a/xlsx/country_comparison/sustainable_future_positive.xlsx
+++ b/xlsx/country_comparison/sustainable_future_positive.xlsx
@@ -419,34 +419,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.80073872788356</v>
+        <v>0.715132349691884</v>
       </c>
       <c r="C2" t="n">
-        <v>0.716285603000937</v>
+        <v>0.713974453591352</v>
       </c>
       <c r="D2" t="n">
-        <v>0.797802667193784</v>
+        <v>0.752168362862502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.697469746974697</v>
+        <v>0.758160091744507</v>
       </c>
       <c r="F2" t="n">
-        <v>0.585249035989346</v>
+        <v>0.589418832130645</v>
       </c>
       <c r="G2" t="n">
-        <v>0.719036488945177</v>
+        <v>0.709899304310967</v>
       </c>
       <c r="H2" t="n">
-        <v>0.703163541558845</v>
+        <v>0.729995890435356</v>
       </c>
       <c r="I2" t="n">
-        <v>0.584510132165526</v>
+        <v>0.559796767726802</v>
       </c>
       <c r="J2" t="n">
-        <v>0.700345311040125</v>
+        <v>0.719718045141771</v>
       </c>
       <c r="K2" t="n">
-        <v>0.521932923031435</v>
+        <v>0.5986238976395</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/sustainable_future_positive.xlsx
+++ b/xlsx/country_comparison/sustainable_future_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,25 +32,25 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Prefers sustainable future</t>
@@ -413,40 +419,52 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.715132349691884</v>
+        <v>0.684971976950318</v>
       </c>
       <c r="C2" t="n">
-        <v>0.713974453591352</v>
+        <v>0.709052233549382</v>
       </c>
       <c r="D2" t="n">
-        <v>0.752168362862502</v>
+        <v>0.719098657982519</v>
       </c>
       <c r="E2" t="n">
-        <v>0.758160091744507</v>
+        <v>0.742152235473654</v>
       </c>
       <c r="F2" t="n">
-        <v>0.589418832130645</v>
+        <v>0.763169851058816</v>
       </c>
       <c r="G2" t="n">
-        <v>0.709899304310967</v>
+        <v>0.58985384550952</v>
       </c>
       <c r="H2" t="n">
-        <v>0.729995890435356</v>
+        <v>0.730280336839806</v>
       </c>
       <c r="I2" t="n">
-        <v>0.559796767726802</v>
+        <v>0.670504795205127</v>
       </c>
       <c r="J2" t="n">
-        <v>0.719718045141771</v>
+        <v>0.635823622009053</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5986238976395</v>
+        <v>0.7567947956425</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.720406204237396</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.62592635305428</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/sustainable_future_positive.xlsx
+++ b/xlsx/country_comparison/sustainable_future_positive.xlsx
@@ -431,40 +431,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.684971976950318</v>
+        <v>0.679339452163956</v>
       </c>
       <c r="C2" t="n">
-        <v>0.709052233549382</v>
+        <v>0.707053473126566</v>
       </c>
       <c r="D2" t="n">
-        <v>0.719098657982519</v>
+        <v>0.719098657982518</v>
       </c>
       <c r="E2" t="n">
-        <v>0.742152235473654</v>
+        <v>0.732391294111957</v>
       </c>
       <c r="F2" t="n">
-        <v>0.763169851058816</v>
+        <v>0.759962768449526</v>
       </c>
       <c r="G2" t="n">
         <v>0.58985384550952</v>
       </c>
       <c r="H2" t="n">
-        <v>0.730280336839806</v>
+        <v>0.733450855989519</v>
       </c>
       <c r="I2" t="n">
-        <v>0.670504795205127</v>
+        <v>0.670291452079512</v>
       </c>
       <c r="J2" t="n">
-        <v>0.635823622009053</v>
+        <v>0.650775554107189</v>
       </c>
       <c r="K2" t="n">
         <v>0.7567947956425</v>
       </c>
       <c r="L2" t="n">
-        <v>0.720406204237396</v>
+        <v>0.724166145205984</v>
       </c>
       <c r="M2" t="n">
-        <v>0.62592635305428</v>
+        <v>0.613086665410343</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/sustainable_future_positive.xlsx
+++ b/xlsx/country_comparison/sustainable_future_positive.xlsx
@@ -431,40 +431,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.679339452163956</v>
+        <v>0.679366394096195</v>
       </c>
       <c r="C2" t="n">
-        <v>0.707053473126566</v>
+        <v>0.701539116816613</v>
       </c>
       <c r="D2" t="n">
-        <v>0.719098657982518</v>
+        <v>0.721220700610069</v>
       </c>
       <c r="E2" t="n">
-        <v>0.732391294111957</v>
+        <v>0.703415187125182</v>
       </c>
       <c r="F2" t="n">
-        <v>0.759962768449526</v>
+        <v>0.759706650286704</v>
       </c>
       <c r="G2" t="n">
-        <v>0.58985384550952</v>
+        <v>0.575101001313061</v>
       </c>
       <c r="H2" t="n">
-        <v>0.733450855989519</v>
+        <v>0.731116681894394</v>
       </c>
       <c r="I2" t="n">
-        <v>0.670291452079512</v>
+        <v>0.683377424047149</v>
       </c>
       <c r="J2" t="n">
-        <v>0.650775554107189</v>
+        <v>0.659704988708263</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7567947956425</v>
+        <v>0.759423291434471</v>
       </c>
       <c r="L2" t="n">
-        <v>0.724166145205984</v>
+        <v>0.721853509181885</v>
       </c>
       <c r="M2" t="n">
-        <v>0.613086665410343</v>
+        <v>0.618615448895168</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/sustainable_future_positive.xlsx
+++ b/xlsx/country_comparison/sustainable_future_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -425,13 +428,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.679366394096195</v>
+        <v>0.681044372483487</v>
       </c>
       <c r="C2" t="n">
         <v>0.701539116816613</v>
@@ -461,9 +467,12 @@
         <v>0.759423291434471</v>
       </c>
       <c r="L2" t="n">
+        <v>0.691340656670987</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.721853509181885</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.618615448895168</v>
       </c>
     </row>

--- a/xlsx/country_comparison/sustainable_future_positive.xlsx
+++ b/xlsx/country_comparison/sustainable_future_positive.xlsx
@@ -437,13 +437,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.681044372483487</v>
+        <v>0.680881448179833</v>
       </c>
       <c r="C2" t="n">
         <v>0.701539116816613</v>
       </c>
       <c r="D2" t="n">
-        <v>0.721220700610069</v>
+        <v>0.721220700610068</v>
       </c>
       <c r="E2" t="n">
         <v>0.703415187125182</v>
@@ -464,16 +464,16 @@
         <v>0.659704988708263</v>
       </c>
       <c r="K2" t="n">
-        <v>0.759423291434471</v>
+        <v>0.759539408850822</v>
       </c>
       <c r="L2" t="n">
-        <v>0.691340656670987</v>
+        <v>0.690381293922693</v>
       </c>
       <c r="M2" t="n">
         <v>0.721853509181885</v>
       </c>
       <c r="N2" t="n">
-        <v>0.618615448895168</v>
+        <v>0.618731104894089</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/sustainable_future_positive.xlsx
+++ b/xlsx/country_comparison/sustainable_future_positive.xlsx
@@ -437,7 +437,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.680881448179833</v>
+        <v>0.680815013747804</v>
       </c>
       <c r="C2" t="n">
         <v>0.701539116816613</v>
@@ -458,7 +458,7 @@
         <v>0.731116681894394</v>
       </c>
       <c r="I2" t="n">
-        <v>0.683377424047149</v>
+        <v>0.68337742404715</v>
       </c>
       <c r="J2" t="n">
         <v>0.659704988708263</v>
@@ -467,7 +467,7 @@
         <v>0.759539408850822</v>
       </c>
       <c r="L2" t="n">
-        <v>0.690381293922693</v>
+        <v>0.689906588508866</v>
       </c>
       <c r="M2" t="n">
         <v>0.721853509181885</v>
